--- a/js_learn_track.xlsx
+++ b/js_learn_track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\languge\javascprit\learn js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\languge\javascprit\jsmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,15 +641,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44845</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44846</v>
       </c>
@@ -654,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44847</v>
       </c>
@@ -662,7 +668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44848</v>
       </c>
@@ -670,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44849</v>
       </c>
@@ -678,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44850</v>
       </c>
@@ -686,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44851</v>
       </c>
@@ -694,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44852</v>
       </c>
@@ -702,31 +708,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44853</v>
       </c>
+      <c r="B25" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.125</v>
+      </c>
       <c r="D25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44854</v>
       </c>
+      <c r="B26" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.1875</v>
+      </c>
       <c r="D26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44855</v>
       </c>
+      <c r="B27" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44856</v>
       </c>
@@ -734,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44857</v>
       </c>
@@ -742,7 +772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44858</v>
       </c>
@@ -750,10 +780,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
